--- a/recognition_log.xlsx
+++ b/recognition_log.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2102023-prem kumar at 2024-11-02 09:12:59</t>
+          <t>2102023-prem kumar at 2024-11-14 20:40:26</t>
         </is>
       </c>
     </row>

--- a/recognition_log.xlsx
+++ b/recognition_log.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2102023-prem kumar at 2024-11-14 20:40:26</t>
+          <t>2102023-prem kumar at 2024-11-15 12:59:29</t>
         </is>
       </c>
     </row>

--- a/recognition_log.xlsx
+++ b/recognition_log.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2102023-prem kumar at 2024-11-15 12:59:29</t>
+          <t>2102023-prem kumar at 2024-11-17 10:47:52</t>
         </is>
       </c>
     </row>
